--- a/biology/Botanique/Arabette_du_Québec/Arabette_du_Québec.xlsx
+++ b/biology/Botanique/Arabette_du_Québec/Arabette_du_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arabette_du_Qu%C3%A9bec</t>
+          <t>Arabette_du_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boechera quebecensis, communément appelé Arabette du Québec, est une espèce de plantes à fleurs de la famille des Brassicaceae. C'est une plante herbacée vivace.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arabette_du_Qu%C3%A9bec</t>
+          <t>Arabette_du_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, composée de quebec et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arabette_du_Qu%C3%A9bec</t>
+          <t>Arabette_du_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Michael D. Windham et Ihsan A. Al-Shehbaz, « New and noteworthy species of Boechera (Brassicaceae) III: Additional sexual diploids and apomictic hybrids », Harvard Papers in Botany, Harvard University Press, vol. 12, no 1,‎ juin 2007, p. 235–257 (ISSN 1043-4534 et 1938-2944, OCLC 19475908, DOI 10.3100/1043-4534(2007)12[235:NANSOB]2.0.CO;2)</t>
         </is>
